--- a/docs/lede-project-2/stadiums-working-document.xlsx
+++ b/docs/lede-project-2/stadiums-working-document.xlsx
@@ -15,9 +15,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="105">
   <si>
     <t>Team</t>
+  </si>
+  <si>
+    <t>cap1994</t>
+  </si>
+  <si>
+    <t>cap2004</t>
+  </si>
+  <si>
+    <t>cap2014</t>
+  </si>
+  <si>
+    <t>cap2024</t>
   </si>
   <si>
     <t>Arizona Diamondbacks</t>
@@ -69,6 +81,9 @@
   </si>
   <si>
     <t>Minnesota Twins</t>
+  </si>
+  <si>
+    <t>Montreal Expos</t>
   </si>
   <si>
     <t>New York Mets</t>
@@ -247,6 +262,9 @@
   </si>
   <si>
     <t>Angel Stadium of Anaheim (Anaheim Angels)</t>
+  </si>
+  <si>
+    <t>Bank One Ballpark  (Arizona Diamondbacks)</t>
   </si>
   <si>
     <t>Hubert H. Humphrey Metrodome (Minnesota Twins)</t>
@@ -617,17 +635,17 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1">
-        <v>1994.0</v>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
       </c>
-      <c r="C1" s="1">
-        <v>2004.0</v>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
       </c>
-      <c r="D1" s="1">
-        <v>2014.0</v>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
       </c>
-      <c r="E1" s="1">
-        <v>2024.0</v>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
@@ -649,7 +667,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="1">
@@ -681,7 +699,7 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B3" s="1">
         <v>52013.0</v>
@@ -715,7 +733,7 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B4" s="1">
         <v>48041.0</v>
@@ -749,7 +767,7 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B5" s="1">
         <v>34218.0</v>
@@ -783,7 +801,7 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B6" s="1">
         <v>38765.0</v>
@@ -817,7 +835,7 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B7" s="1">
         <v>44321.0</v>
@@ -851,7 +869,7 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B8" s="1">
         <v>52952.0</v>
@@ -885,7 +903,7 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B9" s="1">
         <v>42865.0</v>
@@ -919,7 +937,7 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B10" s="1">
         <v>76273.0</v>
@@ -953,7 +971,7 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B11" s="1">
         <v>52416.0</v>
@@ -987,7 +1005,7 @@
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B12" s="1">
         <v>53821.0</v>
@@ -1021,7 +1039,7 @@
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B13" s="1">
         <v>40625.0</v>
@@ -1055,7 +1073,7 @@
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B14" s="1">
         <v>64573.0</v>
@@ -1089,7 +1107,7 @@
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B15" s="1">
         <v>56000.0</v>
@@ -1123,7 +1141,7 @@
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B16" s="1">
         <v>47662.0</v>
@@ -1157,7 +1175,7 @@
     </row>
     <row r="17">
       <c r="A17" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B17" s="1">
         <v>53192.0</v>
@@ -1191,7 +1209,7 @@
     </row>
     <row r="18">
       <c r="A18" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B18" s="1">
         <v>55883.0</v>
@@ -1225,20 +1243,16 @@
     </row>
     <row r="19">
       <c r="A19" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B19" s="1">
-        <v>55777.0</v>
+        <v>49757.0</v>
       </c>
       <c r="C19" s="1">
-        <v>57405.0</v>
+        <v>49757.0</v>
       </c>
-      <c r="D19" s="1">
-        <v>41922.0</v>
-      </c>
-      <c r="E19" s="1">
-        <v>41922.0</v>
-      </c>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
@@ -1259,19 +1273,19 @@
     </row>
     <row r="20">
       <c r="A20" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B20" s="1">
-        <v>57545.0</v>
+        <v>55777.0</v>
       </c>
       <c r="C20" s="1">
-        <v>57478.0</v>
+        <v>57405.0</v>
       </c>
       <c r="D20" s="1">
-        <v>49642.0</v>
+        <v>41922.0</v>
       </c>
       <c r="E20" s="1">
-        <v>46537.0</v>
+        <v>41922.0</v>
       </c>
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
@@ -1293,19 +1307,19 @@
     </row>
     <row r="21">
       <c r="A21" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B21" s="1">
-        <v>47313.0</v>
+        <v>57545.0</v>
       </c>
       <c r="C21" s="1">
-        <v>43662.0</v>
+        <v>57478.0</v>
       </c>
       <c r="D21" s="1">
-        <v>35067.0</v>
+        <v>49642.0</v>
       </c>
       <c r="E21" s="1">
-        <v>46847.0</v>
+        <v>46537.0</v>
       </c>
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
@@ -1327,19 +1341,19 @@
     </row>
     <row r="22">
       <c r="A22" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B22" s="1">
-        <v>62530.0</v>
+        <v>47313.0</v>
       </c>
       <c r="C22" s="1">
-        <v>43500.0</v>
+        <v>43662.0</v>
       </c>
       <c r="D22" s="1">
-        <v>43651.0</v>
+        <v>35067.0</v>
       </c>
       <c r="E22" s="1">
-        <v>42901.0</v>
+        <v>46847.0</v>
       </c>
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
@@ -1361,19 +1375,19 @@
     </row>
     <row r="23">
       <c r="A23" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B23" s="1">
-        <v>47952.0</v>
+        <v>62530.0</v>
       </c>
       <c r="C23" s="1">
-        <v>38496.0</v>
+        <v>43500.0</v>
       </c>
       <c r="D23" s="1">
-        <v>38362.0</v>
+        <v>43651.0</v>
       </c>
       <c r="E23" s="1">
-        <v>38747.0</v>
+        <v>42901.0</v>
       </c>
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
@@ -1395,19 +1409,19 @@
     </row>
     <row r="24">
       <c r="A24" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B24" s="1">
-        <v>46510.0</v>
+        <v>47952.0</v>
       </c>
       <c r="C24" s="1">
-        <v>42445.0</v>
+        <v>38496.0</v>
       </c>
       <c r="D24" s="1">
-        <v>42302.0</v>
+        <v>38362.0</v>
       </c>
       <c r="E24" s="1">
-        <v>39860.0</v>
+        <v>38747.0</v>
       </c>
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
@@ -1429,19 +1443,19 @@
     </row>
     <row r="25">
       <c r="A25" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B25" s="1">
-        <v>58000.0</v>
+        <v>46510.0</v>
       </c>
       <c r="C25" s="1">
-        <v>41503.0</v>
+        <v>42445.0</v>
       </c>
       <c r="D25" s="1">
-        <v>41915.0</v>
+        <v>42302.0</v>
       </c>
       <c r="E25" s="1">
-        <v>41265.0</v>
+        <v>39860.0</v>
       </c>
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
@@ -1463,19 +1477,19 @@
     </row>
     <row r="26">
       <c r="A26" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B26" s="1">
-        <v>59166.0</v>
+        <v>58000.0</v>
       </c>
       <c r="C26" s="1">
-        <v>47447.0</v>
+        <v>41503.0</v>
       </c>
       <c r="D26" s="1">
-        <v>47476.0</v>
+        <v>41915.0</v>
       </c>
       <c r="E26" s="1">
-        <v>47929.0</v>
+        <v>41265.0</v>
       </c>
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
@@ -1497,19 +1511,19 @@
     </row>
     <row r="27">
       <c r="A27" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B27" s="1">
-        <v>56627.0</v>
+        <v>59166.0</v>
       </c>
       <c r="C27" s="1">
-        <v>50345.0</v>
+        <v>47447.0</v>
       </c>
       <c r="D27" s="1">
-        <v>45399.0</v>
+        <v>47476.0</v>
       </c>
       <c r="E27" s="1">
-        <v>45494.0</v>
+        <v>47929.0</v>
       </c>
       <c r="F27" s="2"/>
       <c r="G27" s="2"/>
@@ -1531,17 +1545,19 @@
     </row>
     <row r="28">
       <c r="A28" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
-      <c r="B28" s="2"/>
+      <c r="B28" s="1">
+        <v>56627.0</v>
+      </c>
       <c r="C28" s="1">
-        <v>43772.0</v>
+        <v>50345.0</v>
       </c>
       <c r="D28" s="1">
-        <v>31042.0</v>
+        <v>45399.0</v>
       </c>
       <c r="E28" s="1">
-        <v>25025.0</v>
+        <v>45494.0</v>
       </c>
       <c r="F28" s="2"/>
       <c r="G28" s="2"/>
@@ -1563,19 +1579,17 @@
     </row>
     <row r="29">
       <c r="A29" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
-      <c r="B29" s="1">
-        <v>49292.0</v>
-      </c>
+      <c r="B29" s="2"/>
       <c r="C29" s="1">
-        <v>49115.0</v>
+        <v>43772.0</v>
       </c>
       <c r="D29" s="1">
-        <v>48114.0</v>
+        <v>31042.0</v>
       </c>
       <c r="E29" s="1">
-        <v>40300.0</v>
+        <v>25025.0</v>
       </c>
       <c r="F29" s="2"/>
       <c r="G29" s="2"/>
@@ -1597,19 +1611,19 @@
     </row>
     <row r="30">
       <c r="A30" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B30" s="1">
-        <v>50516.0</v>
+        <v>49292.0</v>
       </c>
       <c r="C30" s="1">
-        <v>50516.0</v>
+        <v>49115.0</v>
       </c>
       <c r="D30" s="1">
-        <v>49282.0</v>
+        <v>48114.0</v>
       </c>
       <c r="E30" s="1">
-        <v>39150.0</v>
+        <v>40300.0</v>
       </c>
       <c r="F30" s="2"/>
       <c r="G30" s="2"/>
@@ -1631,15 +1645,19 @@
     </row>
     <row r="31">
       <c r="A31" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
-      <c r="B31" s="2"/>
-      <c r="C31" s="2"/>
+      <c r="B31" s="1">
+        <v>50516.0</v>
+      </c>
+      <c r="C31" s="1">
+        <v>50516.0</v>
+      </c>
       <c r="D31" s="1">
-        <v>41418.0</v>
+        <v>49282.0</v>
       </c>
       <c r="E31" s="1">
-        <v>41373.0</v>
+        <v>39150.0</v>
       </c>
       <c r="F31" s="2"/>
       <c r="G31" s="2"/>
@@ -1660,11 +1678,17 @@
       <c r="V31" s="2"/>
     </row>
     <row r="32">
-      <c r="A32" s="2"/>
+      <c r="A32" s="1" t="s">
+        <v>35</v>
+      </c>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
-      <c r="D32" s="2"/>
-      <c r="E32" s="2"/>
+      <c r="D32" s="1">
+        <v>41418.0</v>
+      </c>
+      <c r="E32" s="1">
+        <v>41373.0</v>
+      </c>
       <c r="F32" s="2"/>
       <c r="G32" s="2"/>
       <c r="H32" s="2"/>
@@ -24915,6 +24939,30 @@
       <c r="U1000" s="2"/>
       <c r="V1000" s="2"/>
     </row>
+    <row r="1001">
+      <c r="A1001" s="2"/>
+      <c r="B1001" s="2"/>
+      <c r="C1001" s="2"/>
+      <c r="D1001" s="2"/>
+      <c r="E1001" s="2"/>
+      <c r="F1001" s="2"/>
+      <c r="G1001" s="2"/>
+      <c r="H1001" s="2"/>
+      <c r="I1001" s="2"/>
+      <c r="J1001" s="2"/>
+      <c r="K1001" s="2"/>
+      <c r="L1001" s="2"/>
+      <c r="M1001" s="2"/>
+      <c r="N1001" s="2"/>
+      <c r="O1001" s="2"/>
+      <c r="P1001" s="2"/>
+      <c r="Q1001" s="2"/>
+      <c r="R1001" s="2"/>
+      <c r="S1001" s="2"/>
+      <c r="T1001" s="2"/>
+      <c r="U1001" s="2"/>
+      <c r="V1001" s="2"/>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -24932,10 +24980,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="3" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
@@ -24964,7 +25012,7 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="B2" s="1">
         <v>41900.0</v>
@@ -24996,7 +25044,7 @@
     </row>
     <row r="3">
       <c r="A3" s="3" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="B3" s="1">
         <v>45517.0</v>
@@ -25028,7 +25076,7 @@
     </row>
     <row r="4">
       <c r="A4" s="3" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="B4" s="1">
         <v>45494.0</v>
@@ -25060,7 +25108,7 @@
     </row>
     <row r="5">
       <c r="A5" s="3" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="B5" s="1">
         <v>48330.0</v>
@@ -25092,7 +25140,7 @@
     </row>
     <row r="6">
       <c r="A6" s="3" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B6" s="1">
         <v>41922.0</v>
@@ -25124,7 +25172,7 @@
     </row>
     <row r="7">
       <c r="A7" s="3" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B7" s="1">
         <v>42901.0</v>
@@ -25156,7 +25204,7 @@
     </row>
     <row r="8">
       <c r="A8" s="3" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="B8" s="1">
         <v>41083.0</v>
@@ -25188,7 +25236,7 @@
     </row>
     <row r="9">
       <c r="A9" s="3" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="B9" s="1">
         <v>46897.0</v>
@@ -25220,7 +25268,7 @@
     </row>
     <row r="10">
       <c r="A10" s="3" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="B10" s="1">
         <v>56000.0</v>
@@ -25252,7 +25300,7 @@
     </row>
     <row r="11">
       <c r="A11" s="3" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="B11" s="1">
         <v>37755.0</v>
@@ -25284,7 +25332,7 @@
     </row>
     <row r="12">
       <c r="A12" s="3" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="B12" s="1">
         <v>40300.0</v>
@@ -25316,7 +25364,7 @@
     </row>
     <row r="13">
       <c r="A13" s="3" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="B13" s="1">
         <v>43500.0</v>
@@ -25348,7 +25396,7 @@
     </row>
     <row r="14">
       <c r="A14" s="3" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="B14" s="1">
         <v>40615.0</v>
@@ -25380,7 +25428,7 @@
     </row>
     <row r="15">
       <c r="A15" s="3" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="B15" s="1">
         <v>37903.0</v>
@@ -25412,7 +25460,7 @@
     </row>
     <row r="16">
       <c r="A16" s="3" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="B16" s="1">
         <v>36742.0</v>
@@ -25444,7 +25492,7 @@
     </row>
     <row r="17">
       <c r="A17" s="3" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="B17" s="1">
         <v>41168.0</v>
@@ -25476,7 +25524,7 @@
     </row>
     <row r="18">
       <c r="A18" s="3" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="B18" s="1">
         <v>41373.0</v>
@@ -25508,7 +25556,7 @@
     </row>
     <row r="19">
       <c r="A19" s="3" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="B19" s="1">
         <v>46847.0</v>
@@ -25540,7 +25588,7 @@
     </row>
     <row r="20">
       <c r="A20" s="3" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="B20" s="1">
         <v>41265.0</v>
@@ -25572,7 +25620,7 @@
     </row>
     <row r="21">
       <c r="A21" s="3" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="B21" s="1">
         <v>44970.0</v>
@@ -25604,7 +25652,7 @@
     </row>
     <row r="22">
       <c r="A22" s="3" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="B22" s="1">
         <v>39860.0</v>
@@ -25636,7 +25684,7 @@
     </row>
     <row r="23">
       <c r="A23" s="3" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="B23" s="1">
         <v>38747.0</v>
@@ -25668,7 +25716,7 @@
     </row>
     <row r="24">
       <c r="A24" s="3" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="B24" s="1">
         <v>34830.0</v>
@@ -25700,7 +25748,7 @@
     </row>
     <row r="25">
       <c r="A25" s="3" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="B25" s="1">
         <v>39150.0</v>
@@ -25732,7 +25780,7 @@
     </row>
     <row r="26">
       <c r="A26" s="3" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="B26" s="1">
         <v>47929.0</v>
@@ -25764,7 +25812,7 @@
     </row>
     <row r="27">
       <c r="A27" s="3" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="B27" s="1">
         <v>38544.0</v>
@@ -25796,7 +25844,7 @@
     </row>
     <row r="28">
       <c r="A28" s="3" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="B28" s="1">
         <v>25025.0</v>
@@ -25828,7 +25876,7 @@
     </row>
     <row r="29">
       <c r="A29" s="3" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="B29" s="1">
         <v>41084.0</v>
@@ -25860,7 +25908,7 @@
     </row>
     <row r="30">
       <c r="A30" s="3" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="B30" s="1">
         <v>41649.0</v>
@@ -25892,7 +25940,7 @@
     </row>
     <row r="31">
       <c r="A31" s="3" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="B31" s="1">
         <v>46537.0</v>
@@ -53071,10 +53119,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="3" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
@@ -53103,7 +53151,7 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="B2" s="1">
         <v>45483.0</v>
@@ -53135,7 +53183,7 @@
     </row>
     <row r="3">
       <c r="A3" s="4" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="B3" s="1">
         <v>41915.0</v>
@@ -53167,7 +53215,7 @@
     </row>
     <row r="4">
       <c r="A4" s="3" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="B4" s="1">
         <v>45399.0</v>
@@ -53199,7 +53247,7 @@
     </row>
     <row r="5">
       <c r="A5" s="3" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="B5" s="1">
         <v>48633.0</v>
@@ -53231,7 +53279,7 @@
     </row>
     <row r="6">
       <c r="A6" s="3" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B6" s="1">
         <v>41922.0</v>
@@ -53263,7 +53311,7 @@
     </row>
     <row r="7">
       <c r="A7" s="3" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B7" s="1">
         <v>43651.0</v>
@@ -53295,7 +53343,7 @@
     </row>
     <row r="8">
       <c r="A8" s="3" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="B8" s="1">
         <v>41681.0</v>
@@ -53327,7 +53375,7 @@
     </row>
     <row r="9">
       <c r="A9" s="3" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="B9" s="1">
         <v>50398.0</v>
@@ -53359,7 +53407,7 @@
     </row>
     <row r="10">
       <c r="A10" s="3" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="B10" s="1">
         <v>56000.0</v>
@@ -53391,7 +53439,7 @@
     </row>
     <row r="11">
       <c r="A11" s="3" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="B11" s="1">
         <v>37499.0</v>
@@ -53423,7 +53471,7 @@
     </row>
     <row r="12">
       <c r="A12" s="4" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="B12" s="1">
         <v>48114.0</v>
@@ -53455,7 +53503,7 @@
     </row>
     <row r="13">
       <c r="A13" s="3" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="B13" s="1">
         <v>42319.0</v>
@@ -53487,7 +53535,7 @@
     </row>
     <row r="14">
       <c r="A14" s="3" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="B14" s="1">
         <v>37903.0</v>
@@ -53519,7 +53567,7 @@
     </row>
     <row r="15">
       <c r="A15" s="4" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="B15" s="1">
         <v>36742.0</v>
@@ -53551,7 +53599,7 @@
     </row>
     <row r="16">
       <c r="A16" s="4" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="B16" s="1">
         <v>41900.0</v>
@@ -53583,7 +53631,7 @@
     </row>
     <row r="17">
       <c r="A17" s="3" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="B17" s="1">
         <v>42060.0</v>
@@ -53615,7 +53663,7 @@
     </row>
     <row r="18">
       <c r="A18" s="3" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="B18" s="1">
         <v>41418.0</v>
@@ -53647,7 +53695,7 @@
     </row>
     <row r="19">
       <c r="A19" s="5" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="B19" s="1">
         <v>35067.0</v>
@@ -53679,7 +53727,7 @@
     </row>
     <row r="20">
       <c r="A20" s="3" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="B20" s="1">
         <v>45971.0</v>
@@ -53711,7 +53759,7 @@
     </row>
     <row r="21">
       <c r="A21" s="3" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="B21" s="1">
         <v>42302.0</v>
@@ -53743,7 +53791,7 @@
     </row>
     <row r="22">
       <c r="A22" s="3" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="B22" s="1">
         <v>38362.0</v>
@@ -53775,7 +53823,7 @@
     </row>
     <row r="23">
       <c r="A23" s="4" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="B23" s="1">
         <v>42487.0</v>
@@ -53807,7 +53855,7 @@
     </row>
     <row r="24">
       <c r="A24" s="3" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="B24" s="1">
         <v>49282.0</v>
@@ -53839,7 +53887,7 @@
     </row>
     <row r="25">
       <c r="A25" s="4" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="B25" s="1">
         <v>47476.0</v>
@@ -53871,7 +53919,7 @@
     </row>
     <row r="26">
       <c r="A26" s="3" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="B26" s="1">
         <v>39021.0</v>
@@ -53903,7 +53951,7 @@
     </row>
     <row r="27">
       <c r="A27" s="3" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="B27" s="1">
         <v>31042.0</v>
@@ -53935,7 +53983,7 @@
     </row>
     <row r="28">
       <c r="A28" s="4" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="B28" s="1">
         <v>49586.0</v>
@@ -53967,7 +54015,7 @@
     </row>
     <row r="29">
       <c r="A29" s="4" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="B29" s="1">
         <v>40615.0</v>
@@ -53999,7 +54047,7 @@
     </row>
     <row r="30">
       <c r="A30" s="3" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="B30" s="1">
         <v>41072.0</v>
@@ -54031,7 +54079,7 @@
     </row>
     <row r="31">
       <c r="A31" s="3" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="B31" s="1">
         <v>49642.0</v>
@@ -54078,15 +54126,15 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="4" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="B2" s="1">
         <v>45050.0</v>
@@ -54094,15 +54142,15 @@
     </row>
     <row r="3">
       <c r="A3" s="3" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="B3" s="1">
         <v>50345.0</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="3" t="s">
-        <v>36</v>
+      <c r="A4" s="4" t="s">
+        <v>78</v>
       </c>
       <c r="B4" s="1">
         <v>49033.0</v>
@@ -54110,7 +54158,7 @@
     </row>
     <row r="5">
       <c r="A5" s="3" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B5" s="1">
         <v>43500.0</v>
@@ -54118,7 +54166,7 @@
     </row>
     <row r="6">
       <c r="A6" s="3" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="B6" s="1">
         <v>41070.0</v>
@@ -54126,7 +54174,7 @@
     </row>
     <row r="7">
       <c r="A7" s="3" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="B7" s="1">
         <v>50445.0</v>
@@ -54134,7 +54182,7 @@
     </row>
     <row r="8">
       <c r="A8" s="3" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="B8" s="1">
         <v>56000.0</v>
@@ -54142,7 +54190,7 @@
     </row>
     <row r="9">
       <c r="A9" s="3" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="B9" s="1">
         <v>35095.0</v>
@@ -54150,7 +54198,7 @@
     </row>
     <row r="10">
       <c r="A10" s="3" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="B10" s="1">
         <v>42271.0</v>
@@ -54158,7 +54206,7 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="B11" s="1">
         <v>45423.0</v>
@@ -54166,7 +54214,7 @@
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="B12" s="1">
         <v>43389.0</v>
@@ -54174,7 +54222,7 @@
     </row>
     <row r="13">
       <c r="A13" s="3" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="B13" s="1">
         <v>40793.0</v>
@@ -54182,7 +54230,7 @@
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="B14" s="1">
         <v>43662.0</v>
@@ -54190,7 +54238,7 @@
     </row>
     <row r="15">
       <c r="A15" s="4" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="B15" s="1">
         <v>41900.0</v>
@@ -54198,7 +54246,7 @@
     </row>
     <row r="16">
       <c r="A16" s="3" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="B16" s="1">
         <v>40950.0</v>
@@ -54206,7 +54254,7 @@
     </row>
     <row r="17">
       <c r="A17" s="1" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="B17" s="1">
         <v>49757.0</v>
@@ -54214,7 +54262,7 @@
     </row>
     <row r="18">
       <c r="A18" s="3" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="B18" s="1">
         <v>48190.0</v>
@@ -54222,7 +54270,7 @@
     </row>
     <row r="19">
       <c r="A19" s="3" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="B19" s="1">
         <v>42445.0</v>
@@ -54230,7 +54278,7 @@
     </row>
     <row r="20">
       <c r="A20" s="3" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="B20" s="1">
         <v>38496.0</v>
@@ -54238,7 +54286,7 @@
     </row>
     <row r="21">
       <c r="A21" s="1" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="B21" s="1">
         <v>36331.0</v>
@@ -54246,7 +54294,7 @@
     </row>
     <row r="22">
       <c r="A22" s="1" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="B22" s="1">
         <v>47447.0</v>
@@ -54254,7 +54302,7 @@
     </row>
     <row r="23">
       <c r="A23" s="1" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="B23" s="1">
         <v>41503.0</v>
@@ -54262,7 +54310,7 @@
     </row>
     <row r="24">
       <c r="A24" s="1" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="B24" s="1">
         <v>57405.0</v>
@@ -54270,7 +54318,7 @@
     </row>
     <row r="25">
       <c r="A25" s="1" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="B25" s="1">
         <v>50516.0</v>
@@ -54278,7 +54326,7 @@
     </row>
     <row r="26">
       <c r="A26" s="1" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="B26" s="1">
         <v>49115.0</v>
@@ -54286,7 +54334,7 @@
     </row>
     <row r="27">
       <c r="A27" s="4" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="B27" s="1">
         <v>43772.0</v>
@@ -54294,7 +54342,7 @@
     </row>
     <row r="28">
       <c r="A28" s="4" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="B28" s="1">
         <v>50096.0</v>
@@ -54302,7 +54350,7 @@
     </row>
     <row r="29">
       <c r="A29" s="4" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="B29" s="1">
         <v>40615.0</v>
@@ -54310,7 +54358,7 @@
     </row>
     <row r="30">
       <c r="A30" s="3" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="B30" s="1">
         <v>39345.0</v>
@@ -54318,7 +54366,7 @@
     </row>
     <row r="31">
       <c r="A31" s="3" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="B31" s="1">
         <v>57478.0</v>
@@ -54341,15 +54389,15 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="B2" s="1">
         <v>64573.0</v>
@@ -54357,7 +54405,7 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="B3" s="1">
         <v>52013.0</v>
@@ -54365,7 +54413,7 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="B4" s="1">
         <v>56627.0</v>
@@ -54373,7 +54421,7 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="B5" s="1">
         <v>58000.0</v>
@@ -54381,7 +54429,7 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="B6" s="1">
         <v>44321.0</v>
@@ -54389,7 +54437,7 @@
     </row>
     <row r="7">
       <c r="A7" s="3" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="B7" s="1">
         <v>56000.0</v>
@@ -54397,7 +54445,7 @@
     </row>
     <row r="8">
       <c r="A8" s="3" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="B8" s="1">
         <v>34218.0</v>
@@ -54405,7 +54453,7 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="B9" s="1">
         <v>55883.0</v>
@@ -54413,7 +54461,7 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="B10" s="1">
         <v>46510.0</v>
@@ -54421,7 +54469,7 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="B11" s="1">
         <v>42865.0</v>
@@ -54429,7 +54477,7 @@
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="B12" s="1">
         <v>47662.0</v>
@@ -54437,7 +54485,7 @@
     </row>
     <row r="13">
       <c r="A13" s="3" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="B13" s="1">
         <v>40625.0</v>
@@ -54445,7 +54493,7 @@
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="B14" s="1">
         <v>59166.0</v>
@@ -54453,7 +54501,7 @@
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="B15" s="1">
         <v>76273.0</v>
@@ -54461,7 +54509,7 @@
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="B16" s="1">
         <v>53192.0</v>
@@ -54469,7 +54517,7 @@
     </row>
     <row r="17">
       <c r="A17" s="1" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="B17" s="1">
         <v>47313.0</v>
@@ -54477,7 +54525,7 @@
     </row>
     <row r="18">
       <c r="A18" s="1" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="B18" s="1">
         <v>49757.0</v>
@@ -54485,7 +54533,7 @@
     </row>
     <row r="19">
       <c r="A19" s="3" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="B19" s="1">
         <v>48041.0</v>
@@ -54493,7 +54541,7 @@
     </row>
     <row r="20">
       <c r="A20" s="1" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="B20" s="1">
         <v>52952.0</v>
@@ -54501,7 +54549,7 @@
     </row>
     <row r="21">
       <c r="A21" s="1" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="B21" s="1">
         <v>55777.0</v>
@@ -54509,7 +54557,7 @@
     </row>
     <row r="22">
       <c r="A22" s="1" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="B22" s="1">
         <v>50516.0</v>
@@ -54517,7 +54565,7 @@
     </row>
     <row r="23">
       <c r="A23" s="1" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="B23" s="1">
         <v>53821.0</v>
@@ -54525,7 +54573,7 @@
     </row>
     <row r="24">
       <c r="A24" s="1" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="B24" s="1">
         <v>49292.0</v>
@@ -54533,7 +54581,7 @@
     </row>
     <row r="25">
       <c r="A25" s="1" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="B25" s="1">
         <v>47952.0</v>
@@ -54541,7 +54589,7 @@
     </row>
     <row r="26">
       <c r="A26" s="1" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="B26" s="1">
         <v>52416.0</v>
@@ -54549,7 +54597,7 @@
     </row>
     <row r="27">
       <c r="A27" s="1" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="B27" s="1">
         <v>62530.0</v>
@@ -54557,7 +54605,7 @@
     </row>
     <row r="28">
       <c r="A28" s="3" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="B28" s="1">
         <v>38765.0</v>
@@ -54565,7 +54613,7 @@
     </row>
     <row r="29">
       <c r="A29" s="3" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="B29" s="1">
         <v>57545.0</v>
